--- a/biology/Microbiologie/Symbiobacterium/Symbiobacterium.xlsx
+++ b/biology/Microbiologie/Symbiobacterium/Symbiobacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Symbiobacterium sont un genre de bactéries à Gram-négatif dont la caractéristique principale lors de sa description est de ne croître qu'en co-culture avec des Bacillus. Depuis, elles ont pu être mise en culture avec des extraits d'autres genres bactériens. Elles font partie de la famille Symbiobacteriaceae de l'ordre Eubacteriales.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type du genre Symbiobacterium a été isolée en 1988 en co-culture avec une souche de Bacillus. En 1999, sa mise en culture par dialyse séparée de Bacillus par une membrane de cellulose[2] a permis sa caractérisation et sa description comme un nouveau taxon en 2000[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type du genre Symbiobacterium a été isolée en 1988 en co-culture avec une souche de Bacillus. En 1999, sa mise en culture par dialyse séparée de Bacillus par une membrane de cellulose a permis sa caractérisation et sa description comme un nouveau taxon en 2000.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du nom du genre Symbiobacterium est la suivante : Sym.bi.o.bac.te.ri.um. Gr. masc./fem. adj. symbios, vivant ensemble, symbiotique; N.L. neut. n. bacterium, un petit bâtonnet; N.L. neut. n. Symbiobacterium, petit bâtonnet symbiotique, ce qui fait référence à sa croissance dépendante d'autres bactéries[3].
-Phylogénie
-Les Symbiobacterium sont des bactéries à Gram négatif de famille Symbiobacteriaceae de l'ordre Eubacteriales incluses dans la classe Clostridia du phylum Bacillota[3].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom du genre Symbiobacterium est la suivante : Sym.bi.o.bac.te.ri.um. Gr. masc./fem. adj. symbios, vivant ensemble, symbiotique; N.L. neut. n. bacterium, un petit bâtonnet; N.L. neut. n. Symbiobacterium, petit bâtonnet symbiotique, ce qui fait référence à sa croissance dépendante d'autres bactéries.
 </t>
         </is>
       </c>
@@ -573,18 +590,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Symbiobacterium sont des bactéries à Gram négatif de famille Symbiobacteriaceae de l'ordre Eubacteriales incluses dans la classe Clostridia du phylum Bacillota.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Symbiobacterium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symbiobacterium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (1 février 2023)[4], le genre des Symbiobacterium comprend au moins quatre espèces publiées de manière valide[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (1 février 2023), le genre des Symbiobacterium comprend au moins quatre espèces publiées de manière valide :
 Symbiobacterium ostreiconchae Shiratori-Takano et al. 2014
 Symbiobacterium terraclitae Shiratori-Takano et al. 2014
 Symbiobacterium thermophilum Ohno et al. 2000
 Symbiobacterium turbinis Shiratori-Takano et al. 2014
-Espèces non valides
-Symbiobacterium toebii Sung et al. 2003</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Symbiobacterium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symbiobacterium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces non valides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Symbiobacterium toebii Sung et al. 2003</t>
         </is>
       </c>
     </row>
